--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel20/field_36ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2252,28 +2252,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>911.3880135998675</v>
+        <v>1032.169821882065</v>
       </c>
       <c r="AB2" t="n">
-        <v>1247.001287808789</v>
+        <v>1412.260286417805</v>
       </c>
       <c r="AC2" t="n">
-        <v>1127.989235077617</v>
+        <v>1277.47614680185</v>
       </c>
       <c r="AD2" t="n">
-        <v>911388.0135998675</v>
+        <v>1032169.821882065</v>
       </c>
       <c r="AE2" t="n">
-        <v>1247001.287808789</v>
+        <v>1412260.286417805</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.137705967097764e-06</v>
+        <v>1.64019020660913e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.71296296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>1127989.235077617</v>
+        <v>1277476.14680185</v>
       </c>
     </row>
     <row r="3">
@@ -2358,28 +2358,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>542.0509163980549</v>
+        <v>628.2992534983183</v>
       </c>
       <c r="AB3" t="n">
-        <v>741.6579774145142</v>
+        <v>859.666757243183</v>
       </c>
       <c r="AC3" t="n">
-        <v>670.875180973581</v>
+        <v>777.6213684817645</v>
       </c>
       <c r="AD3" t="n">
-        <v>542050.9163980549</v>
+        <v>628299.2534983183</v>
       </c>
       <c r="AE3" t="n">
-        <v>741657.9774145142</v>
+        <v>859666.7572431831</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.599972870222656e-06</v>
+        <v>2.306623950715373e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.99884259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>670875.180973581</v>
+        <v>777621.3684817646</v>
       </c>
     </row>
     <row r="4">
@@ -2464,28 +2464,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>461.1371812063794</v>
+        <v>530.2042130787984</v>
       </c>
       <c r="AB4" t="n">
-        <v>630.9482352632009</v>
+        <v>725.4487952934428</v>
       </c>
       <c r="AC4" t="n">
-        <v>570.7314212310903</v>
+        <v>656.2129804444148</v>
       </c>
       <c r="AD4" t="n">
-        <v>461137.1812063794</v>
+        <v>530204.2130787984</v>
       </c>
       <c r="AE4" t="n">
-        <v>630948.2352632009</v>
+        <v>725448.7952934428</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.782526807425805e-06</v>
+        <v>2.569805465656671e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.04861111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>570731.4212310903</v>
+        <v>656212.9804444148</v>
       </c>
     </row>
     <row r="5">
@@ -2570,28 +2570,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>412.7520841131103</v>
+        <v>481.7337751309576</v>
       </c>
       <c r="AB5" t="n">
-        <v>564.7456108203589</v>
+        <v>659.1294037284032</v>
       </c>
       <c r="AC5" t="n">
-        <v>510.8470823491061</v>
+        <v>596.2230185304918</v>
       </c>
       <c r="AD5" t="n">
-        <v>412752.0841131103</v>
+        <v>481733.7751309576</v>
       </c>
       <c r="AE5" t="n">
-        <v>564745.610820359</v>
+        <v>659129.4037284032</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.880736204022436e-06</v>
+        <v>2.711390457871926e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.15740740740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>510847.0823491061</v>
+        <v>596223.0185304919</v>
       </c>
     </row>
     <row r="6">
@@ -2676,28 +2676,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>405.0296533868286</v>
+        <v>474.0113444046759</v>
       </c>
       <c r="AB6" t="n">
-        <v>554.1794404110613</v>
+        <v>648.5632333191054</v>
       </c>
       <c r="AC6" t="n">
-        <v>501.2893324139585</v>
+        <v>586.6652685953443</v>
       </c>
       <c r="AD6" t="n">
-        <v>405029.6533868285</v>
+        <v>474011.3444046759</v>
       </c>
       <c r="AE6" t="n">
-        <v>554179.4404110613</v>
+        <v>648563.2333191053</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.898592457949096e-06</v>
+        <v>2.737133183729246e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.00694444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>501289.3324139585</v>
+        <v>586665.2685953443</v>
       </c>
     </row>
   </sheetData>
@@ -2973,28 +2973,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>693.9438055170389</v>
+        <v>794.7822959764832</v>
       </c>
       <c r="AB2" t="n">
-        <v>949.48452934844</v>
+        <v>1087.456200675278</v>
       </c>
       <c r="AC2" t="n">
-        <v>858.8670584773307</v>
+        <v>983.6709071371924</v>
       </c>
       <c r="AD2" t="n">
-        <v>693943.8055170389</v>
+        <v>794782.2959764831</v>
       </c>
       <c r="AE2" t="n">
-        <v>949484.52934844</v>
+        <v>1087456.200675278</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.348459275028224e-06</v>
+        <v>1.974093651015414e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.31597222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>858867.0584773307</v>
+        <v>983670.9071371924</v>
       </c>
     </row>
     <row r="3">
@@ -3079,28 +3079,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>446.2073390760196</v>
+        <v>521.9641510710468</v>
       </c>
       <c r="AB3" t="n">
-        <v>610.5205666022937</v>
+        <v>714.1743789285578</v>
       </c>
       <c r="AC3" t="n">
-        <v>552.2533405967669</v>
+        <v>646.0145785536516</v>
       </c>
       <c r="AD3" t="n">
-        <v>446207.3390760196</v>
+        <v>521964.1510710468</v>
       </c>
       <c r="AE3" t="n">
-        <v>610520.5666022936</v>
+        <v>714174.3789285577</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.783149954299007e-06</v>
+        <v>2.610464452859665e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.63310185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>552253.3405967669</v>
+        <v>646014.5785536516</v>
       </c>
     </row>
     <row r="4">
@@ -3185,28 +3185,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>382.0208119156919</v>
+        <v>449.2749490096957</v>
       </c>
       <c r="AB4" t="n">
-        <v>522.6977284318073</v>
+        <v>614.7178058469482</v>
       </c>
       <c r="AC4" t="n">
-        <v>472.8121908411442</v>
+        <v>556.0500012187739</v>
       </c>
       <c r="AD4" t="n">
-        <v>382020.8119156919</v>
+        <v>449274.9490096957</v>
       </c>
       <c r="AE4" t="n">
-        <v>522697.7284318072</v>
+        <v>614717.8058469482</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.942389846930261e-06</v>
+        <v>2.843585665233807e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.18634259259259</v>
       </c>
       <c r="AH4" t="n">
-        <v>472812.1908411442</v>
+        <v>556050.0012187739</v>
       </c>
     </row>
     <row r="5">
@@ -3291,28 +3291,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>379.2078431751203</v>
+        <v>446.4619802691239</v>
       </c>
       <c r="AB5" t="n">
-        <v>518.8489005015347</v>
+        <v>610.8689779166757</v>
       </c>
       <c r="AC5" t="n">
-        <v>469.3306896466729</v>
+        <v>552.5685000243026</v>
       </c>
       <c r="AD5" t="n">
-        <v>379207.8431751203</v>
+        <v>446461.9802691239</v>
       </c>
       <c r="AE5" t="n">
-        <v>518848.9005015347</v>
+        <v>610868.9779166757</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.95032196031278e-06</v>
+        <v>2.855197980828015e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.12268518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>469330.6896466729</v>
+        <v>552568.5000243026</v>
       </c>
     </row>
   </sheetData>
@@ -3588,28 +3588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>330.298454776762</v>
+        <v>400.0334611843284</v>
       </c>
       <c r="AB2" t="n">
-        <v>451.9289175649698</v>
+        <v>547.343429823157</v>
       </c>
       <c r="AC2" t="n">
-        <v>408.7974559587877</v>
+        <v>495.1057410821625</v>
       </c>
       <c r="AD2" t="n">
-        <v>330298.4547767619</v>
+        <v>400033.4611843284</v>
       </c>
       <c r="AE2" t="n">
-        <v>451928.9175649697</v>
+        <v>547343.4298231569</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.023503071791261e-06</v>
+        <v>3.130609018943898e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.33796296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>408797.4559587877</v>
+        <v>495105.7410821625</v>
       </c>
     </row>
     <row r="3">
@@ -3694,28 +3694,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>328.9012173619161</v>
+        <v>398.6362237694825</v>
       </c>
       <c r="AB3" t="n">
-        <v>450.0171556922132</v>
+        <v>545.4316679504004</v>
       </c>
       <c r="AC3" t="n">
-        <v>407.0681499559925</v>
+        <v>493.3764350793674</v>
       </c>
       <c r="AD3" t="n">
-        <v>328901.217361916</v>
+        <v>398636.2237694825</v>
       </c>
       <c r="AE3" t="n">
-        <v>450017.1556922132</v>
+        <v>545431.6679504004</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.03684032015228e-06</v>
+        <v>3.151243388413837e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.22222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>407068.1499559925</v>
+        <v>493376.4350793674</v>
       </c>
     </row>
   </sheetData>
@@ -3991,28 +3991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>437.5699538488897</v>
+        <v>509.763232963142</v>
       </c>
       <c r="AB2" t="n">
-        <v>598.7025150799919</v>
+        <v>697.4805445068046</v>
       </c>
       <c r="AC2" t="n">
-        <v>541.5631873250143</v>
+        <v>630.9139802591667</v>
       </c>
       <c r="AD2" t="n">
-        <v>437569.9538488897</v>
+        <v>509763.232963142</v>
       </c>
       <c r="AE2" t="n">
-        <v>598702.5150799919</v>
+        <v>697480.5445068046</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.764266290409002e-06</v>
+        <v>2.666325003416132e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.02199074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>541563.1873250143</v>
+        <v>630913.9802591667</v>
       </c>
     </row>
     <row r="3">
@@ -4097,28 +4097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>339.5429727321077</v>
+        <v>411.6508214832373</v>
       </c>
       <c r="AB3" t="n">
-        <v>464.5776748708221</v>
+        <v>563.2388147058884</v>
       </c>
       <c r="AC3" t="n">
-        <v>420.2390336200119</v>
+        <v>509.4840927409991</v>
       </c>
       <c r="AD3" t="n">
-        <v>339542.9727321077</v>
+        <v>411650.8214832373</v>
       </c>
       <c r="AE3" t="n">
-        <v>464577.6748708221</v>
+        <v>563238.8147058884</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.025600409560316e-06</v>
+        <v>3.061277681436944e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.56828703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>420239.0336200119</v>
+        <v>509484.0927409991</v>
       </c>
     </row>
   </sheetData>
@@ -4394,28 +4394,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>322.1310279584868</v>
+        <v>390.0750813467365</v>
       </c>
       <c r="AB2" t="n">
-        <v>440.7538838707645</v>
+        <v>533.7179351966519</v>
       </c>
       <c r="AC2" t="n">
-        <v>398.6889517960992</v>
+        <v>482.7806445393094</v>
       </c>
       <c r="AD2" t="n">
-        <v>322131.0279584868</v>
+        <v>390075.0813467365</v>
       </c>
       <c r="AE2" t="n">
-        <v>440753.8838707645</v>
+        <v>533717.9351966518</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.010030035959652e-06</v>
+        <v>3.176828332061997e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.125</v>
       </c>
       <c r="AH2" t="n">
-        <v>398688.9517960992</v>
+        <v>482780.6445393094</v>
       </c>
     </row>
   </sheetData>
@@ -4691,28 +4691,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>745.8405462537207</v>
+        <v>847.445486736984</v>
       </c>
       <c r="AB2" t="n">
-        <v>1020.491939546983</v>
+        <v>1159.512301609799</v>
       </c>
       <c r="AC2" t="n">
-        <v>923.0976211060507</v>
+        <v>1048.850074929896</v>
       </c>
       <c r="AD2" t="n">
-        <v>745840.5462537208</v>
+        <v>847445.486736984</v>
       </c>
       <c r="AE2" t="n">
-        <v>1020491.939546983</v>
+        <v>1159512.301609799</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.292573018284591e-06</v>
+        <v>1.884424480770158e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.10300925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>923097.6211060507</v>
+        <v>1048850.074929896</v>
       </c>
     </row>
     <row r="3">
@@ -4797,28 +4797,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>467.8702369919106</v>
+        <v>552.4413818071708</v>
       </c>
       <c r="AB3" t="n">
-        <v>640.1606992304221</v>
+        <v>755.8746705822481</v>
       </c>
       <c r="AC3" t="n">
-        <v>579.0646605670541</v>
+        <v>683.7350528986408</v>
       </c>
       <c r="AD3" t="n">
-        <v>467870.2369919107</v>
+        <v>552441.3818071708</v>
       </c>
       <c r="AE3" t="n">
-        <v>640160.6992304221</v>
+        <v>755874.6705822481</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.733481105373045e-06</v>
+        <v>2.527218335605282e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.97453703703703</v>
       </c>
       <c r="AH3" t="n">
-        <v>579064.6605670542</v>
+        <v>683735.0528986407</v>
       </c>
     </row>
     <row r="4">
@@ -4903,28 +4903,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>398.8235611023298</v>
+        <v>466.531770975832</v>
       </c>
       <c r="AB4" t="n">
-        <v>545.6879911539421</v>
+        <v>638.32935097827</v>
       </c>
       <c r="AC4" t="n">
-        <v>493.6082951561149</v>
+        <v>577.408093621774</v>
       </c>
       <c r="AD4" t="n">
-        <v>398823.5611023299</v>
+        <v>466531.770975832</v>
       </c>
       <c r="AE4" t="n">
-        <v>545687.9911539421</v>
+        <v>638329.3509782699</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.903674103698433e-06</v>
+        <v>2.775340374332089e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.36574074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>493608.2951561149</v>
+        <v>577408.093621774</v>
       </c>
     </row>
     <row r="5">
@@ -5009,28 +5009,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>385.8337691693593</v>
+        <v>453.5419790428614</v>
       </c>
       <c r="AB5" t="n">
-        <v>527.9147847620768</v>
+        <v>620.5561445864048</v>
       </c>
       <c r="AC5" t="n">
-        <v>477.5313386374374</v>
+        <v>561.3311371030966</v>
       </c>
       <c r="AD5" t="n">
-        <v>385833.7691693593</v>
+        <v>453541.9790428614</v>
       </c>
       <c r="AE5" t="n">
-        <v>527914.7847620768</v>
+        <v>620556.1445864048</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.936894312482604e-06</v>
+        <v>2.823771661233209e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.08796296296297</v>
       </c>
       <c r="AH5" t="n">
-        <v>477531.3386374374</v>
+        <v>561331.1371030966</v>
       </c>
     </row>
   </sheetData>
@@ -5306,28 +5306,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>316.5568568665716</v>
+        <v>390.8251358224379</v>
       </c>
       <c r="AB2" t="n">
-        <v>433.1270570677335</v>
+        <v>534.7441928203746</v>
       </c>
       <c r="AC2" t="n">
-        <v>391.7900186388309</v>
+        <v>483.7089575757856</v>
       </c>
       <c r="AD2" t="n">
-        <v>316556.8568665716</v>
+        <v>390825.1358224379</v>
       </c>
       <c r="AE2" t="n">
-        <v>433127.0570677335</v>
+        <v>534744.1928203746</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.966690071321131e-06</v>
+        <v>3.151099465187495e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.95833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>391790.0186388309</v>
+        <v>483708.9575757856</v>
       </c>
     </row>
   </sheetData>
@@ -5603,28 +5603,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>558.0472617427351</v>
+        <v>640.3794794710153</v>
       </c>
       <c r="AB2" t="n">
-        <v>763.5448828240557</v>
+        <v>876.1954553609837</v>
       </c>
       <c r="AC2" t="n">
-        <v>690.6732308493007</v>
+        <v>792.5725908493761</v>
       </c>
       <c r="AD2" t="n">
-        <v>558047.2617427352</v>
+        <v>640379.4794710153</v>
       </c>
       <c r="AE2" t="n">
-        <v>763544.8828240556</v>
+        <v>876195.4553609837</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.538115816420865e-06</v>
+        <v>2.283860806409766e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.05902777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>690673.2308493007</v>
+        <v>792572.5908493761</v>
       </c>
     </row>
     <row r="3">
@@ -5709,28 +5709,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>374.5611112982087</v>
+        <v>448.5746858413932</v>
       </c>
       <c r="AB3" t="n">
-        <v>512.491036948202</v>
+        <v>613.7596748866462</v>
       </c>
       <c r="AC3" t="n">
-        <v>463.5796116675527</v>
+        <v>555.1833129325778</v>
       </c>
       <c r="AD3" t="n">
-        <v>374561.1112982087</v>
+        <v>448574.6858413932</v>
       </c>
       <c r="AE3" t="n">
-        <v>512491.0369482021</v>
+        <v>613759.6748866462</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.940641139802569e-06</v>
+        <v>2.881547794505429e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.68981481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>463579.6116675527</v>
+        <v>555183.3129325778</v>
       </c>
     </row>
     <row r="4">
@@ -5815,28 +5815,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>359.2280161532227</v>
+        <v>425.0084673829853</v>
       </c>
       <c r="AB4" t="n">
-        <v>491.5116197224157</v>
+        <v>581.5153351236702</v>
       </c>
       <c r="AC4" t="n">
-        <v>444.6024405769984</v>
+        <v>526.0163277013652</v>
       </c>
       <c r="AD4" t="n">
-        <v>359228.0161532226</v>
+        <v>425008.4673829853</v>
       </c>
       <c r="AE4" t="n">
-        <v>491511.6197224157</v>
+        <v>581515.3351236702</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.991747469971877e-06</v>
+        <v>2.957432681187579e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.26157407407408</v>
       </c>
       <c r="AH4" t="n">
-        <v>444602.4405769984</v>
+        <v>526016.3277013652</v>
       </c>
     </row>
   </sheetData>
@@ -6112,28 +6112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>644.5370198428944</v>
+        <v>744.7537524480831</v>
       </c>
       <c r="AB2" t="n">
-        <v>881.8839855155252</v>
+        <v>1019.004940316151</v>
       </c>
       <c r="AC2" t="n">
-        <v>797.71821566987</v>
+        <v>921.7525389947926</v>
       </c>
       <c r="AD2" t="n">
-        <v>644537.0198428944</v>
+        <v>744753.7524480831</v>
       </c>
       <c r="AE2" t="n">
-        <v>881883.9855155252</v>
+        <v>1019004.940316151</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.407173246952378e-06</v>
+        <v>2.069167317831029e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.55787037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>797718.21566987</v>
+        <v>921752.5389947926</v>
       </c>
     </row>
     <row r="3">
@@ -6218,28 +6218,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>426.2373511708809</v>
+        <v>501.2933140651089</v>
       </c>
       <c r="AB3" t="n">
-        <v>583.1967481367953</v>
+        <v>685.8916278040658</v>
       </c>
       <c r="AC3" t="n">
-        <v>527.5372690163957</v>
+        <v>620.4310935013907</v>
       </c>
       <c r="AD3" t="n">
-        <v>426237.3511708808</v>
+        <v>501293.3140651089</v>
       </c>
       <c r="AE3" t="n">
-        <v>583196.7481367954</v>
+        <v>685891.6278040658</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.829758501181948e-06</v>
+        <v>2.690554626709232e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.34375</v>
       </c>
       <c r="AH3" t="n">
-        <v>527537.2690163957</v>
+        <v>620431.0935013907</v>
       </c>
     </row>
     <row r="4">
@@ -6324,28 +6324,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>373.2898247362052</v>
+        <v>440.0726223633583</v>
       </c>
       <c r="AB4" t="n">
-        <v>510.751606588864</v>
+        <v>602.1267765514302</v>
       </c>
       <c r="AC4" t="n">
-        <v>462.0061901004042</v>
+        <v>544.6606420875995</v>
       </c>
       <c r="AD4" t="n">
-        <v>373289.8247362052</v>
+        <v>440072.6223633583</v>
       </c>
       <c r="AE4" t="n">
-        <v>510751.606588864</v>
+        <v>602126.7765514302</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.961442757561597e-06</v>
+        <v>2.884188751124101e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.18055555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>462006.1901004042</v>
+        <v>544660.6420875995</v>
       </c>
     </row>
     <row r="5">
@@ -6430,28 +6430,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>372.9240754100605</v>
+        <v>439.7068730372136</v>
       </c>
       <c r="AB5" t="n">
-        <v>510.2511722251114</v>
+        <v>601.6263421876776</v>
       </c>
       <c r="AC5" t="n">
-        <v>461.553516489964</v>
+        <v>544.2079684771594</v>
       </c>
       <c r="AD5" t="n">
-        <v>372924.0754100605</v>
+        <v>439706.8730372136</v>
       </c>
       <c r="AE5" t="n">
-        <v>510251.1722251114</v>
+        <v>601626.3421876775</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.96665308840544e-06</v>
+        <v>2.891850242927271e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.1400462962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>461553.516489964</v>
+        <v>544207.9684771594</v>
       </c>
     </row>
   </sheetData>
@@ -6727,28 +6727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>851.6233916106069</v>
+        <v>971.6006428180721</v>
       </c>
       <c r="AB2" t="n">
-        <v>1165.228695374045</v>
+        <v>1329.386863498859</v>
       </c>
       <c r="AC2" t="n">
-        <v>1054.02090409629</v>
+        <v>1202.512047052709</v>
       </c>
       <c r="AD2" t="n">
-        <v>851623.3916106068</v>
+        <v>971600.6428180721</v>
       </c>
       <c r="AE2" t="n">
-        <v>1165228.695374045</v>
+        <v>1329386.863498859</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.185657488633945e-06</v>
+        <v>1.715376656877587e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.83912037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>1054020.90409629</v>
+        <v>1202512.047052708</v>
       </c>
     </row>
     <row r="3">
@@ -6833,28 +6833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>520.3614388478597</v>
+        <v>606.0960500765799</v>
       </c>
       <c r="AB3" t="n">
-        <v>711.9814773581201</v>
+        <v>829.2873547853577</v>
       </c>
       <c r="AC3" t="n">
-        <v>644.0309644313397</v>
+        <v>750.1413335567551</v>
       </c>
       <c r="AD3" t="n">
-        <v>520361.4388478597</v>
+        <v>606096.0500765799</v>
       </c>
       <c r="AE3" t="n">
-        <v>711981.47735812</v>
+        <v>829287.3547853577</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.641826197816367e-06</v>
+        <v>2.375349003723779e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.65740740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>644030.9644313398</v>
+        <v>750141.3335567551</v>
       </c>
     </row>
     <row r="4">
@@ -6939,28 +6939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>435.6985262389412</v>
+        <v>512.8511422593323</v>
       </c>
       <c r="AB4" t="n">
-        <v>596.1419452625013</v>
+        <v>701.7055582347955</v>
       </c>
       <c r="AC4" t="n">
-        <v>539.2469946971223</v>
+        <v>634.7357646068023</v>
       </c>
       <c r="AD4" t="n">
-        <v>435698.5262389412</v>
+        <v>512851.1422593323</v>
       </c>
       <c r="AE4" t="n">
-        <v>596141.9452625012</v>
+        <v>701705.5582347955</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.816787040783514e-06</v>
+        <v>2.628477541071657e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.86342592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>539246.9946971224</v>
+        <v>634735.7646068023</v>
       </c>
     </row>
     <row r="5">
@@ -7045,28 +7045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>400.017997819</v>
+        <v>468.5887081396128</v>
       </c>
       <c r="AB5" t="n">
-        <v>547.3222721645191</v>
+        <v>641.1437431514182</v>
       </c>
       <c r="AC5" t="n">
-        <v>495.0866026807702</v>
+        <v>579.9538841559412</v>
       </c>
       <c r="AD5" t="n">
-        <v>400017.997819</v>
+        <v>468588.7081396128</v>
       </c>
       <c r="AE5" t="n">
-        <v>547322.2721645191</v>
+        <v>641143.7431514182</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.907311410367121e-06</v>
+        <v>2.759445710168441e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.06481481481482</v>
       </c>
       <c r="AH5" t="n">
-        <v>495086.6026807702</v>
+        <v>579953.8841559412</v>
       </c>
     </row>
     <row r="6">
@@ -7151,28 +7151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>398.3633640592377</v>
+        <v>466.9340743798505</v>
       </c>
       <c r="AB6" t="n">
-        <v>545.0583292571226</v>
+        <v>638.8798002440217</v>
       </c>
       <c r="AC6" t="n">
-        <v>493.0387273069919</v>
+        <v>577.9060087821629</v>
       </c>
       <c r="AD6" t="n">
-        <v>398363.3640592377</v>
+        <v>466934.0743798505</v>
       </c>
       <c r="AE6" t="n">
-        <v>545058.3292571226</v>
+        <v>638879.8002440217</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.913505183022842e-06</v>
+        <v>2.768406690159273e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.01273148148148</v>
       </c>
       <c r="AH6" t="n">
-        <v>493038.7273069919</v>
+        <v>577906.0087821629</v>
       </c>
     </row>
   </sheetData>
@@ -7448,28 +7448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>470.3613107426024</v>
+        <v>551.3194030745917</v>
       </c>
       <c r="AB2" t="n">
-        <v>643.5690962345361</v>
+        <v>754.3395297821254</v>
       </c>
       <c r="AC2" t="n">
-        <v>582.1477649448109</v>
+        <v>682.3464237818981</v>
       </c>
       <c r="AD2" t="n">
-        <v>470361.3107426025</v>
+        <v>551319.4030745918</v>
       </c>
       <c r="AE2" t="n">
-        <v>643569.0962345361</v>
+        <v>754339.5297821254</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.685601976295474e-06</v>
+        <v>2.531242553189585e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.66435185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>582147.7649448109</v>
+        <v>682346.4237818981</v>
       </c>
     </row>
     <row r="3">
@@ -7554,28 +7554,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>346.1300237403943</v>
+        <v>410.8112462599652</v>
       </c>
       <c r="AB3" t="n">
-        <v>473.5903686605407</v>
+        <v>562.0900708459629</v>
       </c>
       <c r="AC3" t="n">
-        <v>428.3915685638351</v>
+        <v>508.4449833827925</v>
       </c>
       <c r="AD3" t="n">
-        <v>346130.0237403943</v>
+        <v>410811.2462599652</v>
       </c>
       <c r="AE3" t="n">
-        <v>473590.3686605407</v>
+        <v>562090.070845963</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.013307008517637e-06</v>
+        <v>3.023352158019389e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.46412037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>428391.5685638351</v>
+        <v>508444.9833827926</v>
       </c>
     </row>
     <row r="4">
@@ -7660,28 +7660,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>347.4640876401619</v>
+        <v>412.1453101597329</v>
       </c>
       <c r="AB4" t="n">
-        <v>475.4156937429485</v>
+        <v>563.9153959283706</v>
       </c>
       <c r="AC4" t="n">
-        <v>430.0426871822376</v>
+        <v>510.096102001195</v>
       </c>
       <c r="AD4" t="n">
-        <v>347464.087640162</v>
+        <v>412145.3101597329</v>
       </c>
       <c r="AE4" t="n">
-        <v>475415.6937429485</v>
+        <v>563915.3959283705</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.014853327264579e-06</v>
+        <v>3.025674241090065e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.44675925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>430042.6871822376</v>
+        <v>510096.1020011951</v>
       </c>
     </row>
   </sheetData>
@@ -7957,28 +7957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>355.2845893035114</v>
+        <v>426.0083172322354</v>
       </c>
       <c r="AB2" t="n">
-        <v>486.1160491349265</v>
+        <v>582.8833737976763</v>
       </c>
       <c r="AC2" t="n">
-        <v>439.7218156736484</v>
+        <v>527.2538026843786</v>
       </c>
       <c r="AD2" t="n">
-        <v>355284.5893035114</v>
+        <v>426008.3172322353</v>
       </c>
       <c r="AE2" t="n">
-        <v>486116.0491349265</v>
+        <v>582883.3737976763</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.950739441109587e-06</v>
+        <v>2.991940275717186e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.69675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>439721.8156736484</v>
+        <v>527253.8026843786</v>
       </c>
     </row>
     <row r="3">
@@ -8063,28 +8063,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>327.339332348008</v>
+        <v>397.9777194221603</v>
       </c>
       <c r="AB3" t="n">
-        <v>447.8801157106805</v>
+        <v>544.5306732512328</v>
       </c>
       <c r="AC3" t="n">
-        <v>405.1350660709428</v>
+        <v>492.5614300497342</v>
       </c>
       <c r="AD3" t="n">
-        <v>327339.332348008</v>
+        <v>397977.7194221603</v>
       </c>
       <c r="AE3" t="n">
-        <v>447880.1157106805</v>
+        <v>544530.6732512327</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.03581098589757e-06</v>
+        <v>3.122418480958102e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.95601851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>405135.0660709428</v>
+        <v>492561.4300497342</v>
       </c>
     </row>
   </sheetData>
@@ -13869,28 +13869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>321.1676518505141</v>
+        <v>390.1819926613367</v>
       </c>
       <c r="AB2" t="n">
-        <v>439.435750178682</v>
+        <v>533.8642159738822</v>
       </c>
       <c r="AC2" t="n">
-        <v>397.4966189335768</v>
+        <v>482.9129644844672</v>
       </c>
       <c r="AD2" t="n">
-        <v>321167.6518505141</v>
+        <v>390181.9926613367</v>
       </c>
       <c r="AE2" t="n">
-        <v>439435.750178682</v>
+        <v>533864.2159738822</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.027207073057314e-06</v>
+        <v>3.16747106425149e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.61574074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>397496.6189335767</v>
+        <v>482912.9644844672</v>
       </c>
     </row>
     <row r="3">
@@ -13975,28 +13975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>322.2409803539692</v>
+        <v>391.2553211647919</v>
       </c>
       <c r="AB3" t="n">
-        <v>440.904325589021</v>
+        <v>535.3327913842212</v>
       </c>
       <c r="AC3" t="n">
-        <v>398.8250355679116</v>
+        <v>484.2413811188019</v>
       </c>
       <c r="AD3" t="n">
-        <v>322240.9803539692</v>
+        <v>391255.3211647919</v>
       </c>
       <c r="AE3" t="n">
-        <v>440904.325589021</v>
+        <v>535332.7913842212</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.030477856791128e-06</v>
+        <v>3.172581599318169e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.58680555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>398825.0355679116</v>
+        <v>484241.3811188019</v>
       </c>
     </row>
   </sheetData>
@@ -14272,28 +14272,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>327.420707449539</v>
+        <v>400.2530176951653</v>
       </c>
       <c r="AB2" t="n">
-        <v>447.9914567146113</v>
+        <v>547.6438367274336</v>
       </c>
       <c r="AC2" t="n">
-        <v>405.2357808457266</v>
+        <v>495.3774775731189</v>
       </c>
       <c r="AD2" t="n">
-        <v>327420.707449539</v>
+        <v>400253.0176951654</v>
       </c>
       <c r="AE2" t="n">
-        <v>447991.4567146113</v>
+        <v>547643.8367274336</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.874368061146307e-06</v>
+        <v>3.054612893886857e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.45138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>405235.7808457266</v>
+        <v>495377.4775731189</v>
       </c>
     </row>
   </sheetData>
@@ -14569,28 +14569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>594.8508682903387</v>
+        <v>686.1200203217719</v>
       </c>
       <c r="AB2" t="n">
-        <v>813.9012009630153</v>
+        <v>938.7796812832329</v>
       </c>
       <c r="AC2" t="n">
-        <v>736.2236126606144</v>
+        <v>849.1838660871184</v>
       </c>
       <c r="AD2" t="n">
-        <v>594850.8682903387</v>
+        <v>686120.0203217719</v>
       </c>
       <c r="AE2" t="n">
-        <v>813901.2009630153</v>
+        <v>938779.6812832329</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.473124222585961e-06</v>
+        <v>2.176365449488013e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.75925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>736223.6126606144</v>
+        <v>849183.8660871184</v>
       </c>
     </row>
     <row r="3">
@@ -14675,28 +14675,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>405.1193023871318</v>
+        <v>471.4969570094524</v>
       </c>
       <c r="AB3" t="n">
-        <v>554.302102128311</v>
+        <v>645.1229375580177</v>
       </c>
       <c r="AC3" t="n">
-        <v>501.4002874690707</v>
+        <v>583.5533098332093</v>
       </c>
       <c r="AD3" t="n">
-        <v>405119.3023871318</v>
+        <v>471496.9570094524</v>
       </c>
       <c r="AE3" t="n">
-        <v>554302.1021283111</v>
+        <v>645122.9375580177</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.883033196306954e-06</v>
+        <v>2.781957098965763e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.02546296296297</v>
       </c>
       <c r="AH3" t="n">
-        <v>501400.2874690708</v>
+        <v>583553.3098332093</v>
       </c>
     </row>
     <row r="4">
@@ -14781,28 +14781,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>365.3470042171086</v>
+        <v>431.6393179848577</v>
       </c>
       <c r="AB4" t="n">
-        <v>499.8838891421257</v>
+        <v>590.5879574496346</v>
       </c>
       <c r="AC4" t="n">
-        <v>452.1756723538453</v>
+        <v>534.223071686045</v>
       </c>
       <c r="AD4" t="n">
-        <v>365347.0042171086</v>
+        <v>431639.3179848577</v>
       </c>
       <c r="AE4" t="n">
-        <v>499883.8891421257</v>
+        <v>590587.9574496346</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.981023598268094e-06</v>
+        <v>2.926726237874701e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.18055555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>452175.6723538453</v>
+        <v>534223.071686045</v>
       </c>
     </row>
   </sheetData>
@@ -15078,28 +15078,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>792.281380087225</v>
+        <v>903.0728161618398</v>
       </c>
       <c r="AB2" t="n">
-        <v>1084.034337222973</v>
+        <v>1235.624067833459</v>
       </c>
       <c r="AC2" t="n">
-        <v>980.5756215301601</v>
+        <v>1117.697841008704</v>
       </c>
       <c r="AD2" t="n">
-        <v>792281.380087225</v>
+        <v>903072.8161618398</v>
       </c>
       <c r="AE2" t="n">
-        <v>1084034.337222973</v>
+        <v>1235624.067833459</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.238649444253941e-06</v>
+        <v>1.798728344171425e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.94212962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>980575.6215301601</v>
+        <v>1117697.841008704</v>
       </c>
     </row>
     <row r="3">
@@ -15184,28 +15184,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>499.2984694043125</v>
+        <v>575.9740636246518</v>
       </c>
       <c r="AB3" t="n">
-        <v>683.1621933328289</v>
+        <v>788.0731240335758</v>
       </c>
       <c r="AC3" t="n">
-        <v>617.9621524253032</v>
+        <v>712.8605311433869</v>
       </c>
       <c r="AD3" t="n">
-        <v>499298.4694043125</v>
+        <v>575974.0636246518</v>
       </c>
       <c r="AE3" t="n">
-        <v>683162.1933328289</v>
+        <v>788073.1240335759</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.683986755756231e-06</v>
+        <v>2.445433389438487e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.34490740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>617962.1524253032</v>
+        <v>712860.5311433868</v>
       </c>
     </row>
     <row r="4">
@@ -15290,28 +15290,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>417.0210516827893</v>
+        <v>493.6965563945774</v>
       </c>
       <c r="AB4" t="n">
-        <v>570.5866005827511</v>
+        <v>675.4974088139495</v>
       </c>
       <c r="AC4" t="n">
-        <v>516.130616246456</v>
+        <v>611.0288841833133</v>
       </c>
       <c r="AD4" t="n">
-        <v>417021.0516827893</v>
+        <v>493696.5563945774</v>
       </c>
       <c r="AE4" t="n">
-        <v>570586.6005827511</v>
+        <v>675497.4088139496</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.859281941058103e-06</v>
+        <v>2.699991626122778e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.61458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>516130.616246456</v>
+        <v>611028.8841833132</v>
       </c>
     </row>
     <row r="5">
@@ -15396,28 +15396,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>391.3779325643065</v>
+        <v>459.5245439439391</v>
       </c>
       <c r="AB5" t="n">
-        <v>535.5005537102702</v>
+        <v>628.7417538161953</v>
       </c>
       <c r="AC5" t="n">
-        <v>484.3931324439087</v>
+        <v>568.7355232765707</v>
       </c>
       <c r="AD5" t="n">
-        <v>391377.9325643065</v>
+        <v>459524.5439439391</v>
       </c>
       <c r="AE5" t="n">
-        <v>535500.5537102702</v>
+        <v>628741.7538161953</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.925044324825432e-06</v>
+        <v>2.795489722223583e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.04745370370371</v>
       </c>
       <c r="AH5" t="n">
-        <v>484393.1324439087</v>
+        <v>568735.5232765707</v>
       </c>
     </row>
     <row r="6">
@@ -15502,28 +15502,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>392.5671413632077</v>
+        <v>460.7137527428402</v>
       </c>
       <c r="AB6" t="n">
-        <v>537.1276816531163</v>
+        <v>630.3688817590413</v>
       </c>
       <c r="AC6" t="n">
-        <v>485.8649695795779</v>
+        <v>570.2073604122398</v>
       </c>
       <c r="AD6" t="n">
-        <v>392567.1413632077</v>
+        <v>460713.7527428402</v>
       </c>
       <c r="AE6" t="n">
-        <v>537127.6816531162</v>
+        <v>630368.8817590413</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.924777432034169e-06</v>
+        <v>2.795102148781616e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.04745370370371</v>
       </c>
       <c r="AH6" t="n">
-        <v>485864.9695795779</v>
+        <v>570207.3604122398</v>
       </c>
     </row>
   </sheetData>
@@ -15799,28 +15799,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>349.2961143633493</v>
+        <v>434.6840820064826</v>
       </c>
       <c r="AB2" t="n">
-        <v>477.9223535289281</v>
+        <v>594.7539379095302</v>
       </c>
       <c r="AC2" t="n">
-        <v>432.3101148763625</v>
+        <v>537.9914568178385</v>
       </c>
       <c r="AD2" t="n">
-        <v>349296.1143633493</v>
+        <v>434684.0820064826</v>
       </c>
       <c r="AE2" t="n">
-        <v>477922.3535289281</v>
+        <v>594753.9379095302</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.673486428158022e-06</v>
+        <v>2.789602171021569e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.72106481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>432310.1148763625</v>
+        <v>537991.4568178385</v>
       </c>
     </row>
   </sheetData>
@@ -16096,28 +16096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>396.3940685943729</v>
+        <v>467.7916860306952</v>
       </c>
       <c r="AB2" t="n">
-        <v>542.3638523229105</v>
+        <v>640.0532223398632</v>
       </c>
       <c r="AC2" t="n">
-        <v>490.6014074696587</v>
+        <v>578.9674411200856</v>
       </c>
       <c r="AD2" t="n">
-        <v>396394.0685943729</v>
+        <v>467791.6860306952</v>
       </c>
       <c r="AE2" t="n">
-        <v>542363.8523229104</v>
+        <v>640053.2223398632</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.852054256085256e-06</v>
+        <v>2.818653636124273e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.36805555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>490601.4074696588</v>
+        <v>578967.4411200855</v>
       </c>
     </row>
     <row r="3">
@@ -16202,28 +16202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>332.926806657914</v>
+        <v>404.3243345856852</v>
       </c>
       <c r="AB3" t="n">
-        <v>455.5251445634632</v>
+        <v>553.2143921108676</v>
       </c>
       <c r="AC3" t="n">
-        <v>412.0504640998814</v>
+        <v>500.4163869690815</v>
       </c>
       <c r="AD3" t="n">
-        <v>332926.806657914</v>
+        <v>404324.3345856852</v>
       </c>
       <c r="AE3" t="n">
-        <v>455525.1445634632</v>
+        <v>553214.3921108677</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.034355559034736e-06</v>
+        <v>3.096099196231605e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.72453703703703</v>
       </c>
       <c r="AH3" t="n">
-        <v>412050.4640998814</v>
+        <v>500416.3869690815</v>
       </c>
     </row>
   </sheetData>
@@ -16499,28 +16499,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>514.4411190830366</v>
+        <v>596.0180792673279</v>
       </c>
       <c r="AB2" t="n">
-        <v>703.8810346698147</v>
+        <v>815.4982305154462</v>
       </c>
       <c r="AC2" t="n">
-        <v>636.7036166241636</v>
+        <v>737.6682239540063</v>
       </c>
       <c r="AD2" t="n">
-        <v>514441.1190830366</v>
+        <v>596018.0792673279</v>
       </c>
       <c r="AE2" t="n">
-        <v>703881.0346698146</v>
+        <v>815498.2305154462</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.607161390482184e-06</v>
+        <v>2.39934842686908e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.38194444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>636703.6166241636</v>
+        <v>737668.2239540063</v>
       </c>
     </row>
     <row r="3">
@@ -16605,28 +16605,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>357.3134827504539</v>
+        <v>422.5580006286828</v>
       </c>
       <c r="AB3" t="n">
-        <v>488.8920706574949</v>
+        <v>578.1624984034703</v>
       </c>
       <c r="AC3" t="n">
-        <v>442.2328975982734</v>
+        <v>522.9834810120051</v>
       </c>
       <c r="AD3" t="n">
-        <v>357313.4827504539</v>
+        <v>422558.0006286828</v>
       </c>
       <c r="AE3" t="n">
-        <v>488892.0706574948</v>
+        <v>578162.4984034703</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.987174828612045e-06</v>
+        <v>2.96667455252497e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.48148148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>442232.8975982734</v>
+        <v>522983.4810120051</v>
       </c>
     </row>
     <row r="4">
@@ -16711,28 +16711,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>353.0573178222472</v>
+        <v>418.3018357004761</v>
       </c>
       <c r="AB4" t="n">
-        <v>483.0685980339778</v>
+        <v>572.3390257799531</v>
       </c>
       <c r="AC4" t="n">
-        <v>436.9652090286497</v>
+        <v>517.7157924423815</v>
       </c>
       <c r="AD4" t="n">
-        <v>353057.3178222472</v>
+        <v>418301.8357004761</v>
       </c>
       <c r="AE4" t="n">
-        <v>483068.5980339778</v>
+        <v>572339.0257799531</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.003249272524598e-06</v>
+        <v>2.990672261742466e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.34837962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>436965.2090286497</v>
+        <v>517715.7924423815</v>
       </c>
     </row>
   </sheetData>
